--- a/doc/ue_umg_render.xlsx
+++ b/doc/ue_umg_render.xlsx
@@ -1,19 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9659B1F9-46E5-4643-A628-A0276A1D5965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7BE08-6587-4D24-9411-9DDCABB7C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="调度" sheetId="1" r:id="rId1"/>
+    <sheet name="渲染" sheetId="2" r:id="rId2"/>
+    <sheet name="prepass" sheetId="3" r:id="rId3"/>
+    <sheet name="DrawWindowAndChildren" sheetId="4" r:id="rId4"/>
+    <sheet name="FSlateRHIRenderer-DrawWindow" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,9 +29,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>搞清楚为啥切换场景时UI都不播放了？？？！！！！</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+  <si>
+    <t>void FEngineLoop::Tick()</t>
+  </si>
+  <si>
+    <t>// Tick the platform and input portion of Slate application, we need to do this before we run things</t>
+  </si>
+  <si>
+    <t>// concurrent with networking.</t>
+  </si>
+  <si>
+    <t>if (FSlateApplication::IsInitialized() &amp;&amp; !bIdleMode)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_FEngineLoop_ProcessPlayerControllersSlateOperations);</t>
+  </si>
+  <si>
+    <t>check(!IsRunningDedicatedServer());</t>
+  </si>
+  <si>
+    <t>// Process slate operations accumulated in the world ticks.</t>
+  </si>
+  <si>
+    <t>ProcessLocalPlayerSlateOperations();</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::PlatformAndInput);</t>
+  </si>
+  <si>
+    <t>// Tick(Advance) Time for the application and then tick and paint slate application widgets.</t>
+  </si>
+  <si>
+    <t>// We split separate this action from the one above to permit running network replication concurrent with slate widget ticking and painting.</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::TimeAndWidgets);</t>
+  </si>
+  <si>
+    <t>这个和World是分开的，在Engine里面TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::TickAndDrawWidgets(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>// Draw all windows</t>
+  </si>
+  <si>
+    <t>DrawWindows();</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawWindows()</t>
+  </si>
+  <si>
+    <t>SCOPED_NAMED_EVENT_TEXT("Slate::DrawWindows", FColor::Magenta);</t>
+  </si>
+  <si>
+    <t>PrivateDrawWindows();</t>
+  </si>
+  <si>
+    <t>void FSlateApplication::PrivateDrawWindows( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
+  </si>
+  <si>
+    <t>渲染流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Prepass the window</t>
+  </si>
+  <si>
+    <t>DrawPrepass( DrawOnlyThisWindow );</t>
+  </si>
+  <si>
+    <t>for( TArray&lt; TSharedRef&lt;SWindow&gt; &gt;::TConstIterator CurrentWindowIt( SlateWindows ); CurrentWindowIt; ++CurrentWindowIt )</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;SWindow&gt; CurrentWindow = *CurrentWindowIt;</t>
+  </si>
+  <si>
+    <t>// Only draw visible windows or in off-screen rendering mode</t>
+  </si>
+  <si>
+    <t>if (bRenderOffScreen || CurrentWindow-&gt;IsVisible() )</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>Renderer-&gt;DrawWindows( DrawWindowArgs.OutDrawBuffer );</t>
+  </si>
+  <si>
+    <t>！！！主要分三步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1第一步PrePass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDrawWindowArgs DrawWindowArgs( Renderer-&gt;GetDrawBuffer(), WidgetsToVisualizeUnderCursor);</t>
+  </si>
+  <si>
+    <t>第二步DrawWindow，收集所有的OutDrawBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>DrawWindows_Private(WindowDrawBuffer);</t>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>第一步：更新贴图Atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (DoesThreadOwnSlateRendering())</t>
+  </si>
+  <si>
+    <t>ResourceManager-&gt;UpdateTextureAtlases();</t>
+  </si>
+  <si>
+    <t>如果ATLas有更新，则提交Texture到RHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部，遍历WindowDrawBuffer的所有请求，挨个提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateFontServices-&gt;GetFontCache();</t>
+  </si>
+  <si>
+    <t>const TArray&lt;TSharedRef&lt;FSlateWindowElementList&gt;&gt;&amp; WindowElementLists = WindowDrawBuffer.GetWindowElementLists();</t>
+  </si>
+  <si>
+    <t>for (int32 ListIndex = 0; ListIndex &lt; WindowElementLists.Num(); ++ListIndex)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateWindowElementList&amp; ElementList = *WindowElementLists[ListIndex];</t>
+  </si>
+  <si>
+    <t>SWindow* Window = ElementList.GetRenderWindow();</t>
+  </si>
+  <si>
+    <t>// Add all elements for this window to the element batcher</t>
+  </si>
+  <si>
+    <t>ElementBatcher-&gt;AddElements(ElementList);</t>
+  </si>
+  <si>
+    <t>// Update the font cache with new text after elements are batched</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;UpdateCache();</t>
+  </si>
+  <si>
+    <t>// Tell the rendering thread to draw the windows</t>
+  </si>
+  <si>
+    <t>FSlateDrawWindowCommandParams Params;</t>
+  </si>
+  <si>
+    <t>Params.Renderer = this;</t>
+  </si>
+  <si>
+    <t>Params.WindowElementList = &amp;ElementList;</t>
+  </si>
+  <si>
+    <t>Params.Window = Window;</t>
+  </si>
+  <si>
+    <t>#if WANTS_DRAW_MESH_EVENTS</t>
+  </si>
+  <si>
+    <t>Params.WindowTitle = Window-&gt;GetTitle().ToString();</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>Params.bLockToVsync = bLockToVsync;</t>
+  </si>
+  <si>
+    <t>#if ALPHA_BLENDED_WINDOWS</t>
+  </si>
+  <si>
+    <t>Params.bClear = Window-&gt;GetTransparencySupport() == EWindowTransparency::PerPixel;</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>Params.bClear = false;</t>
+  </si>
+  <si>
+    <t>Params.WorldTimeSeconds = FApp::GetCurrentTime() - GStartTime;</t>
+  </si>
+  <si>
+    <t>Params.DeltaTimeSeconds = FApp::GetDeltaTime();</t>
+  </si>
+  <si>
+    <t>Params.RealTimeSeconds = FPlatformTime::Seconds() - GStartTime;</t>
+  </si>
+  <si>
+    <t>// Skip the actual draw if we're in a headless execution environment</t>
+  </si>
+  <si>
+    <t>bool bLocalTakingAScreenShot = bTakingAScreenShot;</t>
+  </si>
+  <si>
+    <t>if (GIsClient &amp;&amp; !IsRunningCommandlet() &amp;&amp; !GUsingNullRHI)</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(SlateDrawWindowsCommand)(</t>
+  </si>
+  <si>
+    <t>[Params, ViewInfo](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>Params.Renderer-&gt;DrawWindow_RenderThread(RHICmdList, *ViewInfo, *Params.WindowElementList, Params);</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>SlateWindowRendered.Broadcast(*Window, &amp;ViewInfo-&gt;ViewportRHI);</t>
+  </si>
+  <si>
+    <t>if (bLocalTakingAScreenShot)</t>
+  </si>
+  <si>
+    <t>// immediately flush the RHI command list</t>
+  </si>
+  <si>
+    <t>FlushRenderingCommands();</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;ConditionalFlushCache();</t>
+  </si>
+  <si>
+    <t>第三步，清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawPrepass( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; CurrentWindow : SlateWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(CurrentWindow);</t>
+  </si>
+  <si>
+    <t>static void PrepassWindowAndChildren( TSharedRef&lt;SWindow&gt; WindowToPrepass )</t>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>DS模式不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bIsWindowVisible = WindowToPrepass-&gt;IsVisible() &amp;&amp; !WindowToPrepass-&gt;IsWindowMinimized();</t>
+  </si>
+  <si>
+    <t>if (bIsWindowVisible || DoAnyWindowDescendantsNeedPrepass(WindowToPrepass))</t>
+  </si>
+  <si>
+    <t>FScopedSwitchWorldHack SwitchWorld(WindowToPrepass);</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;ProcessWindowInvalidation();</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;SlatePrepass(FSlateApplication::Get().GetApplicationScale() * WindowToPrepass-&gt;GetNativeWindow()-&gt;GetDPIScaleFactor());</t>
+  </si>
+  <si>
+    <t>if ( bIsWindowVisible &amp;&amp; WindowToPrepass-&gt;IsAutosized() )</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;Resize(WindowToPrepass-&gt;GetDesiredSizeDesktopPixels());</t>
+  </si>
+  <si>
+    <t>// Note: Iterate over copy since num children can change during resize above.</t>
+  </si>
+  <si>
+    <t>FMemMark Mark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>TArray&lt;TSharedRef&lt;SWindow&gt;, TMemStackAllocator&lt;&gt;&gt; ChildWindows(WindowToPrepass-&gt;GetChildWindows());</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; ChildWindow : ChildWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(ChildWindow);</t>
+  </si>
+  <si>
+    <t>预计算；根据缩放系数等计算大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawWindowAndChildren( const TSharedRef&lt;SWindow&gt;&amp; WindowToDraw, FDrawWindowArgs&amp; DrawWindowArgs )</t>
+  </si>
+  <si>
+    <t>MaxLayerId = WindowToDraw-&gt;PaintWindow(</t>
+  </si>
+  <si>
+    <t>GetCurrentTime(),</t>
+  </si>
+  <si>
+    <t>GetDeltaTime(),</t>
+  </si>
+  <si>
+    <t>WindowElementList,</t>
+  </si>
+  <si>
+    <t>FWidgetStyle(),</t>
+  </si>
+  <si>
+    <t>WindowToDraw-&gt;IsEnabled());</t>
+  </si>
+  <si>
+    <t>执行PaintWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bDrawChildWindows)</t>
+  </si>
+  <si>
+    <t>// Draw the child windows</t>
+  </si>
+  <si>
+    <t>const TArray&lt; TSharedRef&lt;SWindow&gt; &gt; WindowChildren = WindowToDraw-&gt;GetChildWindows();</t>
+  </si>
+  <si>
+    <t>for (int32 ChildIndex=0; ChildIndex &lt; WindowChildren.Num(); ++ChildIndex)</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( WindowChildren[ChildIndex], DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>子节点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
+  </si>
+  <si>
+    <t>执行该处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>里面的FastPath和SLowPath是啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result.bRepaintedWidgets = PaintFastPath(Context);</t>
+  </si>
+  <si>
+    <t>CachedMaxLayerId = PaintSlowPath(Context);</t>
+  </si>
+  <si>
+    <t>啥意思？？？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -35,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -59,6 +456,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,9 +484,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -363,17 +768,1020 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3"/>
+  <dimension ref="A3:E27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBE82-CA20-449F-A590-0A9A5C2E5AF7}">
+  <dimension ref="A2:Q34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B22" s="1"/>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B23" s="1"/>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B24" s="1"/>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B25" s="1"/>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B26" s="1"/>
+      <c r="D26" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B27" s="1"/>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B29" s="1"/>
+      <c r="C29" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q32" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="17:17" x14ac:dyDescent="0.2">
+      <c r="Q34" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBDFEA0-ED08-4FBF-B234-621BF99A8AAB}">
+  <dimension ref="B2:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="E31" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="3:5" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB6430-4985-4A97-BC72-A3D00F4C5483}">
+  <dimension ref="B2:H45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C14" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="H20" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C22" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="E29" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67270D2-92AF-418B-A6DF-F3D631E762EB}">
+  <dimension ref="B3:L75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C17" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="4:9" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="J56" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="57" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="K57" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="K58" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="L59" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="K60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="J61" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="62" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="9:12" x14ac:dyDescent="0.2">
+      <c r="I64" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I66" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="J69" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="70" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="I70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="H71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C74" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_umg_render.xlsx
+++ b/doc/ue_umg_render.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D7BE08-6587-4D24-9411-9DDCABB7C9A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A09133-086E-4318-87DA-C82FCD66EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="调度" sheetId="1" r:id="rId1"/>
-    <sheet name="渲染" sheetId="2" r:id="rId2"/>
-    <sheet name="prepass" sheetId="3" r:id="rId3"/>
-    <sheet name="DrawWindowAndChildren" sheetId="4" r:id="rId4"/>
-    <sheet name="FSlateRHIRenderer-DrawWindow" sheetId="5" r:id="rId5"/>
+    <sheet name="概述" sheetId="6" r:id="rId1"/>
+    <sheet name="调度" sheetId="1" r:id="rId2"/>
+    <sheet name="渲染" sheetId="2" r:id="rId3"/>
+    <sheet name="prepass" sheetId="3" r:id="rId4"/>
+    <sheet name="DrawWindowAndChildren" sheetId="4" r:id="rId5"/>
+    <sheet name="FSlateRHIRenderer-DrawWindow" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="165">
   <si>
     <t>void FEngineLoop::Tick()</t>
   </si>
@@ -425,6 +426,140 @@
   </si>
   <si>
     <t>啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于FSlateApplication的TICK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为三类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::Widgets</t>
+  </si>
+  <si>
+    <t>ESlateTickType::Time</t>
+  </si>
+  <si>
+    <t>ESlateTickType::PlatformAndInput</t>
+  </si>
+  <si>
+    <t>平台缓存的输入事件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新TickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次TICK更新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMoviePlayerWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::Time);</t>
+  </si>
+  <si>
+    <t>void FPreLoadSlateWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>只在特殊时期进行调用；一般主线程调用的TimeAndWidgets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::TimeAndWidgets:</t>
+  </si>
+  <si>
+    <t>不会单独调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新事件，渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FSlateRenderer&gt; SlateRenderer = GUsingNullRHI ?</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().LoadModuleChecked&lt;ISlateNullRendererModule&gt;("SlateNullRenderer").CreateSlateNullRenderer() :</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().GetModuleChecked&lt;ISlateRHIRendererModule&gt;("SlateRHIRenderer").CreateSlateRHIRenderer();</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FSlateRenderer&gt; SlateRendererSharedRef = SlateRenderer.ToSharedRef();</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("CurrentSlateApp.InitializeRenderer");</t>
+  </si>
+  <si>
+    <t>// If Slate is being used, initialize the renderer after RHIInit</t>
+  </si>
+  <si>
+    <t>FSlateApplication&amp; CurrentSlateApp = FSlateApplication::Get();</t>
+  </si>
+  <si>
+    <t>CurrentSlateApp.InitializeRenderer(SlateRendererSharedRef);</t>
+  </si>
+  <si>
+    <t>对应的Render是在初始化时设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintSlowPath</t>
+  </si>
+  <si>
+    <t>就是挨个调用渲染接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWindow::PaintSlowPath</t>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle,</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
+  </si>
+  <si>
+    <t>执行TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 NewLayerId = OnPaint(UpdatedArgs, AllottedGeometry, CullingBounds, OutDrawElements, LayerId, ContentWidgetStyle, bParentEnabled);</t>
+  </si>
+  <si>
+    <t>挨个调用OnPaint，将自己渲染信息插入到Context.WindowElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintFastPath</t>
+  </si>
+  <si>
+    <t>不会挨个调用OnPaint，使用缓存的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也会调用TICK，不过是通过Proxy调用，不会调用OnPaint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -432,7 +567,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -463,6 +598,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,10 +627,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -767,8 +911,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8559D655-FE92-441B-AA1C-87D0B5715C82}">
+  <dimension ref="B4:Q23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
@@ -776,6 +920,138 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="I6" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B10" s="2">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="I10" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>132</v>
+      </c>
+      <c r="I11" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="I13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="B16" s="2">
+        <v>3</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="I16" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B21" s="2">
+        <v>4</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:E27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>14</v>
@@ -883,12 +1159,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBE82-CA20-449F-A590-0A9A5C2E5AF7}">
-  <dimension ref="A2:Q34"/>
+  <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1069,11 +1345,66 @@
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="17:17" x14ac:dyDescent="0.2">
-      <c r="Q33" s="1"/>
-    </row>
-    <row r="34" spans="17:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="Q33" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="34" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q34" s="1"/>
+      <c r="R34" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="S35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="S38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="40" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="S40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T41" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T43" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="44" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="T44" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="17:20" x14ac:dyDescent="0.2">
+      <c r="S45" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1081,7 +1412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEBDFEA0-ED08-4FBF-B234-621BF99A8AAB}">
   <dimension ref="B2:N41"/>
   <sheetViews>
@@ -1280,12 +1611,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB6430-4985-4A97-BC72-A3D00F4C5483}">
-  <dimension ref="B2:H45"/>
+  <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1425,44 +1756,105 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="P40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="R40" s="1"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="Q41" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R42" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="R43" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="R44" s="2">
+        <v>1</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
         <v>123</v>
+      </c>
+      <c r="S45" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R46" s="2">
+        <v>2</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="S47" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="49" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q49" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="16:17" x14ac:dyDescent="0.2">
+      <c r="Q51" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1471,12 +1863,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67270D2-92AF-418B-A6DF-F3D631E762EB}">
   <dimension ref="B3:L75"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/doc/ue_umg_render.xlsx
+++ b/doc/ue_umg_render.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84A09133-086E-4318-87DA-C82FCD66EC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CB50-844F-4091-B39C-02F15D997EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="6" r:id="rId1"/>
@@ -156,410 +156,411 @@
     <t>DrawWindows_Private(WindowDrawBuffer);</t>
   </si>
   <si>
+    <t>第一步：更新贴图Atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (DoesThreadOwnSlateRendering())</t>
+  </si>
+  <si>
+    <t>ResourceManager-&gt;UpdateTextureAtlases();</t>
+  </si>
+  <si>
+    <t>如果ATLas有更新，则提交Texture到RHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部，遍历WindowDrawBuffer的所有请求，挨个提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateFontServices-&gt;GetFontCache();</t>
+  </si>
+  <si>
+    <t>const TArray&lt;TSharedRef&lt;FSlateWindowElementList&gt;&gt;&amp; WindowElementLists = WindowDrawBuffer.GetWindowElementLists();</t>
+  </si>
+  <si>
+    <t>for (int32 ListIndex = 0; ListIndex &lt; WindowElementLists.Num(); ++ListIndex)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateWindowElementList&amp; ElementList = *WindowElementLists[ListIndex];</t>
+  </si>
+  <si>
+    <t>SWindow* Window = ElementList.GetRenderWindow();</t>
+  </si>
+  <si>
+    <t>// Add all elements for this window to the element batcher</t>
+  </si>
+  <si>
+    <t>ElementBatcher-&gt;AddElements(ElementList);</t>
+  </si>
+  <si>
+    <t>// Update the font cache with new text after elements are batched</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;UpdateCache();</t>
+  </si>
+  <si>
+    <t>// Tell the rendering thread to draw the windows</t>
+  </si>
+  <si>
+    <t>FSlateDrawWindowCommandParams Params;</t>
+  </si>
+  <si>
+    <t>Params.Renderer = this;</t>
+  </si>
+  <si>
+    <t>Params.WindowElementList = &amp;ElementList;</t>
+  </si>
+  <si>
+    <t>Params.Window = Window;</t>
+  </si>
+  <si>
+    <t>#if WANTS_DRAW_MESH_EVENTS</t>
+  </si>
+  <si>
+    <t>Params.WindowTitle = Window-&gt;GetTitle().ToString();</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>Params.bLockToVsync = bLockToVsync;</t>
+  </si>
+  <si>
+    <t>#if ALPHA_BLENDED_WINDOWS</t>
+  </si>
+  <si>
+    <t>Params.bClear = Window-&gt;GetTransparencySupport() == EWindowTransparency::PerPixel;</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>Params.bClear = false;</t>
+  </si>
+  <si>
+    <t>Params.WorldTimeSeconds = FApp::GetCurrentTime() - GStartTime;</t>
+  </si>
+  <si>
+    <t>Params.DeltaTimeSeconds = FApp::GetDeltaTime();</t>
+  </si>
+  <si>
+    <t>Params.RealTimeSeconds = FPlatformTime::Seconds() - GStartTime;</t>
+  </si>
+  <si>
+    <t>// Skip the actual draw if we're in a headless execution environment</t>
+  </si>
+  <si>
+    <t>bool bLocalTakingAScreenShot = bTakingAScreenShot;</t>
+  </si>
+  <si>
+    <t>if (GIsClient &amp;&amp; !IsRunningCommandlet() &amp;&amp; !GUsingNullRHI)</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(SlateDrawWindowsCommand)(</t>
+  </si>
+  <si>
+    <t>[Params, ViewInfo](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>Params.Renderer-&gt;DrawWindow_RenderThread(RHICmdList, *ViewInfo, *Params.WindowElementList, Params);</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>SlateWindowRendered.Broadcast(*Window, &amp;ViewInfo-&gt;ViewportRHI);</t>
+  </si>
+  <si>
+    <t>if (bLocalTakingAScreenShot)</t>
+  </si>
+  <si>
+    <t>// immediately flush the RHI command list</t>
+  </si>
+  <si>
+    <t>FlushRenderingCommands();</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;ConditionalFlushCache();</t>
+  </si>
+  <si>
+    <t>第三步，清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawPrepass( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; CurrentWindow : SlateWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(CurrentWindow);</t>
+  </si>
+  <si>
+    <t>static void PrepassWindowAndChildren( TSharedRef&lt;SWindow&gt; WindowToPrepass )</t>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>DS模式不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bIsWindowVisible = WindowToPrepass-&gt;IsVisible() &amp;&amp; !WindowToPrepass-&gt;IsWindowMinimized();</t>
+  </si>
+  <si>
+    <t>if (bIsWindowVisible || DoAnyWindowDescendantsNeedPrepass(WindowToPrepass))</t>
+  </si>
+  <si>
+    <t>FScopedSwitchWorldHack SwitchWorld(WindowToPrepass);</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;ProcessWindowInvalidation();</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;SlatePrepass(FSlateApplication::Get().GetApplicationScale() * WindowToPrepass-&gt;GetNativeWindow()-&gt;GetDPIScaleFactor());</t>
+  </si>
+  <si>
+    <t>if ( bIsWindowVisible &amp;&amp; WindowToPrepass-&gt;IsAutosized() )</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;Resize(WindowToPrepass-&gt;GetDesiredSizeDesktopPixels());</t>
+  </si>
+  <si>
+    <t>// Note: Iterate over copy since num children can change during resize above.</t>
+  </si>
+  <si>
+    <t>FMemMark Mark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>TArray&lt;TSharedRef&lt;SWindow&gt;, TMemStackAllocator&lt;&gt;&gt; ChildWindows(WindowToPrepass-&gt;GetChildWindows());</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; ChildWindow : ChildWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(ChildWindow);</t>
+  </si>
+  <si>
+    <t>预计算；根据缩放系数等计算大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawWindowAndChildren( const TSharedRef&lt;SWindow&gt;&amp; WindowToDraw, FDrawWindowArgs&amp; DrawWindowArgs )</t>
+  </si>
+  <si>
+    <t>MaxLayerId = WindowToDraw-&gt;PaintWindow(</t>
+  </si>
+  <si>
+    <t>GetCurrentTime(),</t>
+  </si>
+  <si>
+    <t>GetDeltaTime(),</t>
+  </si>
+  <si>
+    <t>WindowElementList,</t>
+  </si>
+  <si>
+    <t>FWidgetStyle(),</t>
+  </si>
+  <si>
+    <t>WindowToDraw-&gt;IsEnabled());</t>
+  </si>
+  <si>
+    <t>执行PaintWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bDrawChildWindows)</t>
+  </si>
+  <si>
+    <t>// Draw the child windows</t>
+  </si>
+  <si>
+    <t>const TArray&lt; TSharedRef&lt;SWindow&gt; &gt; WindowChildren = WindowToDraw-&gt;GetChildWindows();</t>
+  </si>
+  <si>
+    <t>for (int32 ChildIndex=0; ChildIndex &lt; WindowChildren.Num(); ++ChildIndex)</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( WindowChildren[ChildIndex], DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>子节点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
+  </si>
+  <si>
+    <t>执行该处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>里面的FastPath和SLowPath是啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result.bRepaintedWidgets = PaintFastPath(Context);</t>
+  </si>
+  <si>
+    <t>CachedMaxLayerId = PaintSlowPath(Context);</t>
+  </si>
+  <si>
+    <t>啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于FSlateApplication的TICK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为三类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::Widgets</t>
+  </si>
+  <si>
+    <t>ESlateTickType::Time</t>
+  </si>
+  <si>
+    <t>ESlateTickType::PlatformAndInput</t>
+  </si>
+  <si>
+    <t>平台缓存的输入事件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新TickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次TICK更新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMoviePlayerWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::Time);</t>
+  </si>
+  <si>
+    <t>void FPreLoadSlateWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>只在特殊时期进行调用；一般主线程调用的TimeAndWidgets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::TimeAndWidgets:</t>
+  </si>
+  <si>
+    <t>不会单独调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新事件，渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FSlateRenderer&gt; SlateRenderer = GUsingNullRHI ?</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().LoadModuleChecked&lt;ISlateNullRendererModule&gt;("SlateNullRenderer").CreateSlateNullRenderer() :</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().GetModuleChecked&lt;ISlateRHIRendererModule&gt;("SlateRHIRenderer").CreateSlateRHIRenderer();</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FSlateRenderer&gt; SlateRendererSharedRef = SlateRenderer.ToSharedRef();</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("CurrentSlateApp.InitializeRenderer");</t>
+  </si>
+  <si>
+    <t>// If Slate is being used, initialize the renderer after RHIInit</t>
+  </si>
+  <si>
+    <t>FSlateApplication&amp; CurrentSlateApp = FSlateApplication::Get();</t>
+  </si>
+  <si>
+    <t>CurrentSlateApp.InitializeRenderer(SlateRendererSharedRef);</t>
+  </si>
+  <si>
+    <t>对应的Render是在初始化时设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintSlowPath</t>
+  </si>
+  <si>
+    <t>就是挨个调用渲染接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWindow::PaintSlowPath</t>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle,</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
+  </si>
+  <si>
+    <t>执行TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 NewLayerId = OnPaint(UpdatedArgs, AllottedGeometry, CullingBounds, OutDrawElements, LayerId, ContentWidgetStyle, bParentEnabled);</t>
+  </si>
+  <si>
+    <t>挨个调用OnPaint，将自己渲染信息插入到Context.WindowElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintFastPath</t>
+  </si>
+  <si>
+    <t>不会挨个调用OnPaint，使用缓存的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也会调用TICK，不过是通过Proxy调用，不会调用OnPaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
-  </si>
-  <si>
-    <t>第一步：更新贴图Atlas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (DoesThreadOwnSlateRendering())</t>
-  </si>
-  <si>
-    <t>ResourceManager-&gt;UpdateTextureAtlases();</t>
-  </si>
-  <si>
-    <t>如果ATLas有更新，则提交Texture到RHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二部，遍历WindowDrawBuffer的所有请求，挨个提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateFontServices-&gt;GetFontCache();</t>
-  </si>
-  <si>
-    <t>const TArray&lt;TSharedRef&lt;FSlateWindowElementList&gt;&gt;&amp; WindowElementLists = WindowDrawBuffer.GetWindowElementLists();</t>
-  </si>
-  <si>
-    <t>for (int32 ListIndex = 0; ListIndex &lt; WindowElementLists.Num(); ++ListIndex)</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSlateWindowElementList&amp; ElementList = *WindowElementLists[ListIndex];</t>
-  </si>
-  <si>
-    <t>SWindow* Window = ElementList.GetRenderWindow();</t>
-  </si>
-  <si>
-    <t>// Add all elements for this window to the element batcher</t>
-  </si>
-  <si>
-    <t>ElementBatcher-&gt;AddElements(ElementList);</t>
-  </si>
-  <si>
-    <t>// Update the font cache with new text after elements are batched</t>
-  </si>
-  <si>
-    <t>FontCache-&gt;UpdateCache();</t>
-  </si>
-  <si>
-    <t>// Tell the rendering thread to draw the windows</t>
-  </si>
-  <si>
-    <t>FSlateDrawWindowCommandParams Params;</t>
-  </si>
-  <si>
-    <t>Params.Renderer = this;</t>
-  </si>
-  <si>
-    <t>Params.WindowElementList = &amp;ElementList;</t>
-  </si>
-  <si>
-    <t>Params.Window = Window;</t>
-  </si>
-  <si>
-    <t>#if WANTS_DRAW_MESH_EVENTS</t>
-  </si>
-  <si>
-    <t>Params.WindowTitle = Window-&gt;GetTitle().ToString();</t>
-  </si>
-  <si>
-    <t>#endif</t>
-  </si>
-  <si>
-    <t>Params.bLockToVsync = bLockToVsync;</t>
-  </si>
-  <si>
-    <t>#if ALPHA_BLENDED_WINDOWS</t>
-  </si>
-  <si>
-    <t>Params.bClear = Window-&gt;GetTransparencySupport() == EWindowTransparency::PerPixel;</t>
-  </si>
-  <si>
-    <t>#else</t>
-  </si>
-  <si>
-    <t>Params.bClear = false;</t>
-  </si>
-  <si>
-    <t>Params.WorldTimeSeconds = FApp::GetCurrentTime() - GStartTime;</t>
-  </si>
-  <si>
-    <t>Params.DeltaTimeSeconds = FApp::GetDeltaTime();</t>
-  </si>
-  <si>
-    <t>Params.RealTimeSeconds = FPlatformTime::Seconds() - GStartTime;</t>
-  </si>
-  <si>
-    <t>// Skip the actual draw if we're in a headless execution environment</t>
-  </si>
-  <si>
-    <t>bool bLocalTakingAScreenShot = bTakingAScreenShot;</t>
-  </si>
-  <si>
-    <t>if (GIsClient &amp;&amp; !IsRunningCommandlet() &amp;&amp; !GUsingNullRHI)</t>
-  </si>
-  <si>
-    <t>ENQUEUE_RENDER_COMMAND(SlateDrawWindowsCommand)(</t>
-  </si>
-  <si>
-    <t>[Params, ViewInfo](FRHICommandListImmediate&amp; RHICmdList)</t>
-  </si>
-  <si>
-    <t>Params.Renderer-&gt;DrawWindow_RenderThread(RHICmdList, *ViewInfo, *Params.WindowElementList, Params);</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>SlateWindowRendered.Broadcast(*Window, &amp;ViewInfo-&gt;ViewportRHI);</t>
-  </si>
-  <si>
-    <t>if (bLocalTakingAScreenShot)</t>
-  </si>
-  <si>
-    <t>// immediately flush the RHI command list</t>
-  </si>
-  <si>
-    <t>FlushRenderingCommands();</t>
-  </si>
-  <si>
-    <t>FontCache-&gt;ConditionalFlushCache();</t>
-  </si>
-  <si>
-    <t>第三步，清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateApplication::DrawPrepass( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
-  </si>
-  <si>
-    <t>for (const TSharedRef&lt;SWindow&gt;&amp; CurrentWindow : SlateWindows)</t>
-  </si>
-  <si>
-    <t>PrepassWindowAndChildren(CurrentWindow);</t>
-  </si>
-  <si>
-    <t>static void PrepassWindowAndChildren( TSharedRef&lt;SWindow&gt; WindowToPrepass )</t>
-  </si>
-  <si>
-    <t>if (IsRunningDedicatedServer())</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>DS模式不处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const bool bIsWindowVisible = WindowToPrepass-&gt;IsVisible() &amp;&amp; !WindowToPrepass-&gt;IsWindowMinimized();</t>
-  </si>
-  <si>
-    <t>if (bIsWindowVisible || DoAnyWindowDescendantsNeedPrepass(WindowToPrepass))</t>
-  </si>
-  <si>
-    <t>FScopedSwitchWorldHack SwitchWorld(WindowToPrepass);</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;ProcessWindowInvalidation();</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;SlatePrepass(FSlateApplication::Get().GetApplicationScale() * WindowToPrepass-&gt;GetNativeWindow()-&gt;GetDPIScaleFactor());</t>
-  </si>
-  <si>
-    <t>if ( bIsWindowVisible &amp;&amp; WindowToPrepass-&gt;IsAutosized() )</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;Resize(WindowToPrepass-&gt;GetDesiredSizeDesktopPixels());</t>
-  </si>
-  <si>
-    <t>// Note: Iterate over copy since num children can change during resize above.</t>
-  </si>
-  <si>
-    <t>FMemMark Mark(FMemStack::Get());</t>
-  </si>
-  <si>
-    <t>TArray&lt;TSharedRef&lt;SWindow&gt;, TMemStackAllocator&lt;&gt;&gt; ChildWindows(WindowToPrepass-&gt;GetChildWindows());</t>
-  </si>
-  <si>
-    <t>for (const TSharedRef&lt;SWindow&gt;&amp; ChildWindow : ChildWindows)</t>
-  </si>
-  <si>
-    <t>PrepassWindowAndChildren(ChildWindow);</t>
-  </si>
-  <si>
-    <t>预计算；根据缩放系数等计算大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateApplication::DrawWindowAndChildren( const TSharedRef&lt;SWindow&gt;&amp; WindowToDraw, FDrawWindowArgs&amp; DrawWindowArgs )</t>
-  </si>
-  <si>
-    <t>MaxLayerId = WindowToDraw-&gt;PaintWindow(</t>
-  </si>
-  <si>
-    <t>GetCurrentTime(),</t>
-  </si>
-  <si>
-    <t>GetDeltaTime(),</t>
-  </si>
-  <si>
-    <t>WindowElementList,</t>
-  </si>
-  <si>
-    <t>FWidgetStyle(),</t>
-  </si>
-  <si>
-    <t>WindowToDraw-&gt;IsEnabled());</t>
-  </si>
-  <si>
-    <t>执行PaintWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (bDrawChildWindows)</t>
-  </si>
-  <si>
-    <t>// Draw the child windows</t>
-  </si>
-  <si>
-    <t>const TArray&lt; TSharedRef&lt;SWindow&gt; &gt; WindowChildren = WindowToDraw-&gt;GetChildWindows();</t>
-  </si>
-  <si>
-    <t>for (int32 ChildIndex=0; ChildIndex &lt; WindowChildren.Num(); ++ChildIndex)</t>
-  </si>
-  <si>
-    <t>DrawWindowAndChildren( WindowChildren[ChildIndex], DrawWindowArgs );</t>
-  </si>
-  <si>
-    <t>子节点执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
-  </si>
-  <si>
-    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
-  </si>
-  <si>
-    <t>执行该处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
-  </si>
-  <si>
-    <t>里面的FastPath和SLowPath是啥意思？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result.bRepaintedWidgets = PaintFastPath(Context);</t>
-  </si>
-  <si>
-    <t>CachedMaxLayerId = PaintSlowPath(Context);</t>
-  </si>
-  <si>
-    <t>啥意思？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于FSlateApplication的TICK处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为三类：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESlateTickType::Widgets</t>
-  </si>
-  <si>
-    <t>ESlateTickType::Time</t>
-  </si>
-  <si>
-    <t>ESlateTickType::PlatformAndInput</t>
-  </si>
-  <si>
-    <t>平台缓存的输入事件处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新TickTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次TICK更新一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FMoviePlayerWidgetRenderer::DrawWindow(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>FSlateApplication::Get().Tick(ESlateTickType::Time);</t>
-  </si>
-  <si>
-    <t>void FPreLoadSlateWidgetRenderer::DrawWindow(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>只在特殊时期进行调用；一般主线程调用的TimeAndWidgets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESlateTickType::TimeAndWidgets:</t>
-  </si>
-  <si>
-    <t>不会单独调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新事件，渲染UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步线程调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
-  </si>
-  <si>
-    <t>TSharedPtr&lt;FSlateRenderer&gt; SlateRenderer = GUsingNullRHI ?</t>
-  </si>
-  <si>
-    <t>FModuleManager::Get().LoadModuleChecked&lt;ISlateNullRendererModule&gt;("SlateNullRenderer").CreateSlateNullRenderer() :</t>
-  </si>
-  <si>
-    <t>FModuleManager::Get().GetModuleChecked&lt;ISlateRHIRendererModule&gt;("SlateRHIRenderer").CreateSlateRHIRenderer();</t>
-  </si>
-  <si>
-    <t>TSharedRef&lt;FSlateRenderer&gt; SlateRendererSharedRef = SlateRenderer.ToSharedRef();</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("CurrentSlateApp.InitializeRenderer");</t>
-  </si>
-  <si>
-    <t>// If Slate is being used, initialize the renderer after RHIInit</t>
-  </si>
-  <si>
-    <t>FSlateApplication&amp; CurrentSlateApp = FSlateApplication::Get();</t>
-  </si>
-  <si>
-    <t>CurrentSlateApp.InitializeRenderer(SlateRendererSharedRef);</t>
-  </si>
-  <si>
-    <t>对应的Render是在初始化时设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaintSlowPath</t>
-  </si>
-  <si>
-    <t>就是挨个调用渲染接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWindow::PaintSlowPath</t>
-  </si>
-  <si>
-    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle,</t>
-  </si>
-  <si>
-    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
-  </si>
-  <si>
-    <t>执行TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 NewLayerId = OnPaint(UpdatedArgs, AllottedGeometry, CullingBounds, OutDrawElements, LayerId, ContentWidgetStyle, bParentEnabled);</t>
-  </si>
-  <si>
-    <t>挨个调用OnPaint，将自己渲染信息插入到Context.WindowElementList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaintFastPath</t>
-  </si>
-  <si>
-    <t>不会挨个调用OnPaint，使用缓存的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也会调用TICK，不过是通过Proxy调用，不会调用OnPaint</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -922,12 +923,12 @@
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
@@ -935,17 +936,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="I6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -961,37 +962,37 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -999,16 +1000,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -1016,15 +1017,15 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
@@ -1347,33 +1348,33 @@
     </row>
     <row r="33" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q34" s="1"/>
       <c r="R34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.2">
       <c r="S35" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T37" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="17:20" x14ac:dyDescent="0.2">
       <c r="S38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="40" spans="17:20" x14ac:dyDescent="0.2">
@@ -1383,22 +1384,22 @@
     </row>
     <row r="41" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T42" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T44" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="17:20" x14ac:dyDescent="0.2">
@@ -1424,12 +1425,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -1439,7 +1440,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -1449,7 +1450,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -1459,17 +1460,17 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -1479,7 +1480,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
@@ -1489,12 +1490,12 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
@@ -1504,7 +1505,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
@@ -1514,7 +1515,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1528,7 +1529,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1547,7 +1548,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
@@ -1557,7 +1558,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
@@ -1567,22 +1568,22 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -1592,7 +1593,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -1615,7 +1616,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB6430-4985-4A97-BC72-A3D00F4C5483}">
   <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
@@ -1668,52 +1669,52 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -1723,17 +1724,17 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -1743,7 +1744,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -1758,71 +1759,71 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R43" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R44" s="2">
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
@@ -1830,12 +1831,12 @@
         <v>2</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="S47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" spans="16:17" x14ac:dyDescent="0.2">
@@ -1843,18 +1844,18 @@
         <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q51" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1867,8 +1868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67270D2-92AF-418B-A6DF-F3D631E762EB}">
   <dimension ref="B3:L75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1895,20 +1896,20 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -1918,7 +1919,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -1928,67 +1929,67 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -1998,97 +1999,97 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I48" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="52" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="53" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="55" spans="9:12" x14ac:dyDescent="0.2">
@@ -2098,12 +2099,12 @@
     </row>
     <row r="56" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="9:12" x14ac:dyDescent="0.2">
       <c r="K57" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="9:12" x14ac:dyDescent="0.2">
@@ -2113,7 +2114,7 @@
     </row>
     <row r="59" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="60" spans="9:12" x14ac:dyDescent="0.2">
@@ -2123,7 +2124,7 @@
     </row>
     <row r="61" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="9:12" x14ac:dyDescent="0.2">
@@ -2133,12 +2134,12 @@
     </row>
     <row r="64" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
@@ -2148,12 +2149,12 @@
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J69" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
@@ -2168,12 +2169,12 @@
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/doc/ue_umg_render.xlsx
+++ b/doc/ue_umg_render.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0464CB50-844F-4091-B39C-02F15D997EA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{871EE48B-D8FC-4284-BCE3-9AFD3B5CF195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概述" sheetId="6" r:id="rId1"/>
@@ -96,471 +96,472 @@
     <t>PrivateDrawWindows();</t>
   </si>
   <si>
+    <t>渲染流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Prepass the window</t>
+  </si>
+  <si>
+    <t>DrawPrepass( DrawOnlyThisWindow );</t>
+  </si>
+  <si>
+    <t>for( TArray&lt; TSharedRef&lt;SWindow&gt; &gt;::TConstIterator CurrentWindowIt( SlateWindows ); CurrentWindowIt; ++CurrentWindowIt )</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;SWindow&gt; CurrentWindow = *CurrentWindowIt;</t>
+  </si>
+  <si>
+    <t>// Only draw visible windows or in off-screen rendering mode</t>
+  </si>
+  <si>
+    <t>if (bRenderOffScreen || CurrentWindow-&gt;IsVisible() )</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>Renderer-&gt;DrawWindows( DrawWindowArgs.OutDrawBuffer );</t>
+  </si>
+  <si>
+    <t>！！！主要分三步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1第一步PrePass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三步提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FDrawWindowArgs DrawWindowArgs( Renderer-&gt;GetDrawBuffer(), WidgetsToVisualizeUnderCursor);</t>
+  </si>
+  <si>
+    <t>第二步DrawWindow，收集所有的OutDrawBuffer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+  </si>
+  <si>
+    <t>DrawWindows_Private(WindowDrawBuffer);</t>
+  </si>
+  <si>
+    <t>第一步：更新贴图Atlas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (DoesThreadOwnSlateRendering())</t>
+  </si>
+  <si>
+    <t>ResourceManager-&gt;UpdateTextureAtlases();</t>
+  </si>
+  <si>
+    <t>如果ATLas有更新，则提交Texture到RHI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二部，遍历WindowDrawBuffer的所有请求，挨个提交</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateFontServices-&gt;GetFontCache();</t>
+  </si>
+  <si>
+    <t>const TArray&lt;TSharedRef&lt;FSlateWindowElementList&gt;&gt;&amp; WindowElementLists = WindowDrawBuffer.GetWindowElementLists();</t>
+  </si>
+  <si>
+    <t>for (int32 ListIndex = 0; ListIndex &lt; WindowElementLists.Num(); ++ListIndex)</t>
+  </si>
+  <si>
+    <t>{</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateWindowElementList&amp; ElementList = *WindowElementLists[ListIndex];</t>
+  </si>
+  <si>
+    <t>SWindow* Window = ElementList.GetRenderWindow();</t>
+  </si>
+  <si>
+    <t>// Add all elements for this window to the element batcher</t>
+  </si>
+  <si>
+    <t>ElementBatcher-&gt;AddElements(ElementList);</t>
+  </si>
+  <si>
+    <t>// Update the font cache with new text after elements are batched</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;UpdateCache();</t>
+  </si>
+  <si>
+    <t>// Tell the rendering thread to draw the windows</t>
+  </si>
+  <si>
+    <t>FSlateDrawWindowCommandParams Params;</t>
+  </si>
+  <si>
+    <t>Params.Renderer = this;</t>
+  </si>
+  <si>
+    <t>Params.WindowElementList = &amp;ElementList;</t>
+  </si>
+  <si>
+    <t>Params.Window = Window;</t>
+  </si>
+  <si>
+    <t>#if WANTS_DRAW_MESH_EVENTS</t>
+  </si>
+  <si>
+    <t>Params.WindowTitle = Window-&gt;GetTitle().ToString();</t>
+  </si>
+  <si>
+    <t>#endif</t>
+  </si>
+  <si>
+    <t>Params.bLockToVsync = bLockToVsync;</t>
+  </si>
+  <si>
+    <t>#if ALPHA_BLENDED_WINDOWS</t>
+  </si>
+  <si>
+    <t>Params.bClear = Window-&gt;GetTransparencySupport() == EWindowTransparency::PerPixel;</t>
+  </si>
+  <si>
+    <t>#else</t>
+  </si>
+  <si>
+    <t>Params.bClear = false;</t>
+  </si>
+  <si>
+    <t>Params.WorldTimeSeconds = FApp::GetCurrentTime() - GStartTime;</t>
+  </si>
+  <si>
+    <t>Params.DeltaTimeSeconds = FApp::GetDeltaTime();</t>
+  </si>
+  <si>
+    <t>Params.RealTimeSeconds = FPlatformTime::Seconds() - GStartTime;</t>
+  </si>
+  <si>
+    <t>// Skip the actual draw if we're in a headless execution environment</t>
+  </si>
+  <si>
+    <t>bool bLocalTakingAScreenShot = bTakingAScreenShot;</t>
+  </si>
+  <si>
+    <t>if (GIsClient &amp;&amp; !IsRunningCommandlet() &amp;&amp; !GUsingNullRHI)</t>
+  </si>
+  <si>
+    <t>ENQUEUE_RENDER_COMMAND(SlateDrawWindowsCommand)(</t>
+  </si>
+  <si>
+    <t>[Params, ViewInfo](FRHICommandListImmediate&amp; RHICmdList)</t>
+  </si>
+  <si>
+    <t>Params.Renderer-&gt;DrawWindow_RenderThread(RHICmdList, *ViewInfo, *Params.WindowElementList, Params);</t>
+  </si>
+  <si>
+    <t>);</t>
+  </si>
+  <si>
+    <t>SlateWindowRendered.Broadcast(*Window, &amp;ViewInfo-&gt;ViewportRHI);</t>
+  </si>
+  <si>
+    <t>if (bLocalTakingAScreenShot)</t>
+  </si>
+  <si>
+    <t>// immediately flush the RHI command list</t>
+  </si>
+  <si>
+    <t>FlushRenderingCommands();</t>
+  </si>
+  <si>
+    <t>FontCache-&gt;ConditionalFlushCache();</t>
+  </si>
+  <si>
+    <t>第三步，清空</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawPrepass( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; CurrentWindow : SlateWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(CurrentWindow);</t>
+  </si>
+  <si>
+    <t>static void PrepassWindowAndChildren( TSharedRef&lt;SWindow&gt; WindowToPrepass )</t>
+  </si>
+  <si>
+    <t>if (IsRunningDedicatedServer())</t>
+  </si>
+  <si>
+    <t>return;</t>
+  </si>
+  <si>
+    <t>DS模式不处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>const bool bIsWindowVisible = WindowToPrepass-&gt;IsVisible() &amp;&amp; !WindowToPrepass-&gt;IsWindowMinimized();</t>
+  </si>
+  <si>
+    <t>if (bIsWindowVisible || DoAnyWindowDescendantsNeedPrepass(WindowToPrepass))</t>
+  </si>
+  <si>
+    <t>FScopedSwitchWorldHack SwitchWorld(WindowToPrepass);</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;ProcessWindowInvalidation();</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;SlatePrepass(FSlateApplication::Get().GetApplicationScale() * WindowToPrepass-&gt;GetNativeWindow()-&gt;GetDPIScaleFactor());</t>
+  </si>
+  <si>
+    <t>if ( bIsWindowVisible &amp;&amp; WindowToPrepass-&gt;IsAutosized() )</t>
+  </si>
+  <si>
+    <t>WindowToPrepass-&gt;Resize(WindowToPrepass-&gt;GetDesiredSizeDesktopPixels());</t>
+  </si>
+  <si>
+    <t>// Note: Iterate over copy since num children can change during resize above.</t>
+  </si>
+  <si>
+    <t>FMemMark Mark(FMemStack::Get());</t>
+  </si>
+  <si>
+    <t>TArray&lt;TSharedRef&lt;SWindow&gt;, TMemStackAllocator&lt;&gt;&gt; ChildWindows(WindowToPrepass-&gt;GetChildWindows());</t>
+  </si>
+  <si>
+    <t>for (const TSharedRef&lt;SWindow&gt;&amp; ChildWindow : ChildWindows)</t>
+  </si>
+  <si>
+    <t>PrepassWindowAndChildren(ChildWindow);</t>
+  </si>
+  <si>
+    <t>预计算；根据缩放系数等计算大小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateApplication::DrawWindowAndChildren( const TSharedRef&lt;SWindow&gt;&amp; WindowToDraw, FDrawWindowArgs&amp; DrawWindowArgs )</t>
+  </si>
+  <si>
+    <t>MaxLayerId = WindowToDraw-&gt;PaintWindow(</t>
+  </si>
+  <si>
+    <t>GetCurrentTime(),</t>
+  </si>
+  <si>
+    <t>GetDeltaTime(),</t>
+  </si>
+  <si>
+    <t>WindowElementList,</t>
+  </si>
+  <si>
+    <t>FWidgetStyle(),</t>
+  </si>
+  <si>
+    <t>WindowToDraw-&gt;IsEnabled());</t>
+  </si>
+  <si>
+    <t>执行PaintWindow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (bDrawChildWindows)</t>
+  </si>
+  <si>
+    <t>// Draw the child windows</t>
+  </si>
+  <si>
+    <t>const TArray&lt; TSharedRef&lt;SWindow&gt; &gt; WindowChildren = WindowToDraw-&gt;GetChildWindows();</t>
+  </si>
+  <si>
+    <t>for (int32 ChildIndex=0; ChildIndex &lt; WindowChildren.Num(); ++ChildIndex)</t>
+  </si>
+  <si>
+    <t>DrawWindowAndChildren( WindowChildren[ChildIndex], DrawWindowArgs );</t>
+  </si>
+  <si>
+    <t>子节点执行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
+  </si>
+  <si>
+    <t>执行该处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
+  </si>
+  <si>
+    <t>里面的FastPath和SLowPath是啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Result.bRepaintedWidgets = PaintFastPath(Context);</t>
+  </si>
+  <si>
+    <t>CachedMaxLayerId = PaintSlowPath(Context);</t>
+  </si>
+  <si>
+    <t>啥意思？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于FSlateApplication的TICK处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分为三类：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::Widgets</t>
+  </si>
+  <si>
+    <t>ESlateTickType::Time</t>
+  </si>
+  <si>
+    <t>ESlateTickType::PlatformAndInput</t>
+  </si>
+  <si>
+    <t>平台缓存的输入事件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新TickTime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次TICK更新一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FMoviePlayerWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>FSlateApplication::Get().Tick(ESlateTickType::Time);</t>
+  </si>
+  <si>
+    <t>void FPreLoadSlateWidgetRenderer::DrawWindow(float DeltaTime)</t>
+  </si>
+  <si>
+    <t>只在特殊时期进行调用；一般主线程调用的TimeAndWidgets</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ESlateTickType::TimeAndWidgets:</t>
+  </si>
+  <si>
+    <t>不会单独调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新事件，渲染UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>异步线程调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
+  </si>
+  <si>
+    <t>TSharedPtr&lt;FSlateRenderer&gt; SlateRenderer = GUsingNullRHI ?</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().LoadModuleChecked&lt;ISlateNullRendererModule&gt;("SlateNullRenderer").CreateSlateNullRenderer() :</t>
+  </si>
+  <si>
+    <t>FModuleManager::Get().GetModuleChecked&lt;ISlateRHIRendererModule&gt;("SlateRHIRenderer").CreateSlateRHIRenderer();</t>
+  </si>
+  <si>
+    <t>TSharedRef&lt;FSlateRenderer&gt; SlateRendererSharedRef = SlateRenderer.ToSharedRef();</t>
+  </si>
+  <si>
+    <t>SCOPED_BOOT_TIMING("CurrentSlateApp.InitializeRenderer");</t>
+  </si>
+  <si>
+    <t>// If Slate is being used, initialize the renderer after RHIInit</t>
+  </si>
+  <si>
+    <t>FSlateApplication&amp; CurrentSlateApp = FSlateApplication::Get();</t>
+  </si>
+  <si>
+    <t>CurrentSlateApp.InitializeRenderer(SlateRendererSharedRef);</t>
+  </si>
+  <si>
+    <t>对应的Render是在初始化时设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintSlowPath</t>
+  </si>
+  <si>
+    <t>就是挨个调用渲染接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SWindow::PaintSlowPath</t>
+  </si>
+  <si>
+    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle,</t>
+  </si>
+  <si>
+    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
+  </si>
+  <si>
+    <t>执行TICK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32 NewLayerId = OnPaint(UpdatedArgs, AllottedGeometry, CullingBounds, OutDrawElements, LayerId, ContentWidgetStyle, bParentEnabled);</t>
+  </si>
+  <si>
+    <t>挨个调用OnPaint，将自己渲染信息插入到Context.WindowElementList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaintFastPath</t>
+  </si>
+  <si>
+    <t>不会挨个调用OnPaint，使用缓存的数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>也会调用TICK，不过是通过Proxy调用，不会调用OnPaint</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>void FSlateApplication::PrivateDrawWindows( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
-  </si>
-  <si>
-    <t>渲染流程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>// Prepass the window</t>
-  </si>
-  <si>
-    <t>DrawPrepass( DrawOnlyThisWindow );</t>
-  </si>
-  <si>
-    <t>for( TArray&lt; TSharedRef&lt;SWindow&gt; &gt;::TConstIterator CurrentWindowIt( SlateWindows ); CurrentWindowIt; ++CurrentWindowIt )</t>
-  </si>
-  <si>
-    <t>TSharedRef&lt;SWindow&gt; CurrentWindow = *CurrentWindowIt;</t>
-  </si>
-  <si>
-    <t>// Only draw visible windows or in off-screen rendering mode</t>
-  </si>
-  <si>
-    <t>if (bRenderOffScreen || CurrentWindow-&gt;IsVisible() )</t>
-  </si>
-  <si>
-    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
-  </si>
-  <si>
-    <t>Renderer-&gt;DrawWindows( DrawWindowArgs.OutDrawBuffer );</t>
-  </si>
-  <si>
-    <t>！！！主要分三步</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1第一步PrePass</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三步提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FDrawWindowArgs DrawWindowArgs( Renderer-&gt;GetDrawBuffer(), WidgetsToVisualizeUnderCursor);</t>
-  </si>
-  <si>
-    <t>第二步DrawWindow，收集所有的OutDrawBuffer</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DrawWindowAndChildren( CurrentWindow, DrawWindowArgs );</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateRHIRenderer::DrawWindows(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
-  </si>
-  <si>
-    <t>DrawWindows_Private(WindowDrawBuffer);</t>
-  </si>
-  <si>
-    <t>第一步：更新贴图Atlas</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (DoesThreadOwnSlateRendering())</t>
-  </si>
-  <si>
-    <t>ResourceManager-&gt;UpdateTextureAtlases();</t>
-  </si>
-  <si>
-    <t>如果ATLas有更新，则提交Texture到RHI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二部，遍历WindowDrawBuffer的所有请求，挨个提交</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const TSharedRef&lt;FSlateFontCache&gt; FontCache = SlateFontServices-&gt;GetFontCache();</t>
-  </si>
-  <si>
-    <t>const TArray&lt;TSharedRef&lt;FSlateWindowElementList&gt;&gt;&amp; WindowElementLists = WindowDrawBuffer.GetWindowElementLists();</t>
-  </si>
-  <si>
-    <t>for (int32 ListIndex = 0; ListIndex &lt; WindowElementLists.Num(); ++ListIndex)</t>
-  </si>
-  <si>
-    <t>{</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSlateWindowElementList&amp; ElementList = *WindowElementLists[ListIndex];</t>
-  </si>
-  <si>
-    <t>SWindow* Window = ElementList.GetRenderWindow();</t>
-  </si>
-  <si>
-    <t>// Add all elements for this window to the element batcher</t>
-  </si>
-  <si>
-    <t>ElementBatcher-&gt;AddElements(ElementList);</t>
-  </si>
-  <si>
-    <t>// Update the font cache with new text after elements are batched</t>
-  </si>
-  <si>
-    <t>FontCache-&gt;UpdateCache();</t>
-  </si>
-  <si>
-    <t>// Tell the rendering thread to draw the windows</t>
-  </si>
-  <si>
-    <t>FSlateDrawWindowCommandParams Params;</t>
-  </si>
-  <si>
-    <t>Params.Renderer = this;</t>
-  </si>
-  <si>
-    <t>Params.WindowElementList = &amp;ElementList;</t>
-  </si>
-  <si>
-    <t>Params.Window = Window;</t>
-  </si>
-  <si>
-    <t>#if WANTS_DRAW_MESH_EVENTS</t>
-  </si>
-  <si>
-    <t>Params.WindowTitle = Window-&gt;GetTitle().ToString();</t>
-  </si>
-  <si>
-    <t>#endif</t>
-  </si>
-  <si>
-    <t>Params.bLockToVsync = bLockToVsync;</t>
-  </si>
-  <si>
-    <t>#if ALPHA_BLENDED_WINDOWS</t>
-  </si>
-  <si>
-    <t>Params.bClear = Window-&gt;GetTransparencySupport() == EWindowTransparency::PerPixel;</t>
-  </si>
-  <si>
-    <t>#else</t>
-  </si>
-  <si>
-    <t>Params.bClear = false;</t>
-  </si>
-  <si>
-    <t>Params.WorldTimeSeconds = FApp::GetCurrentTime() - GStartTime;</t>
-  </si>
-  <si>
-    <t>Params.DeltaTimeSeconds = FApp::GetDeltaTime();</t>
-  </si>
-  <si>
-    <t>Params.RealTimeSeconds = FPlatformTime::Seconds() - GStartTime;</t>
-  </si>
-  <si>
-    <t>// Skip the actual draw if we're in a headless execution environment</t>
-  </si>
-  <si>
-    <t>bool bLocalTakingAScreenShot = bTakingAScreenShot;</t>
-  </si>
-  <si>
-    <t>if (GIsClient &amp;&amp; !IsRunningCommandlet() &amp;&amp; !GUsingNullRHI)</t>
-  </si>
-  <si>
-    <t>ENQUEUE_RENDER_COMMAND(SlateDrawWindowsCommand)(</t>
-  </si>
-  <si>
-    <t>[Params, ViewInfo](FRHICommandListImmediate&amp; RHICmdList)</t>
-  </si>
-  <si>
-    <t>Params.Renderer-&gt;DrawWindow_RenderThread(RHICmdList, *ViewInfo, *Params.WindowElementList, Params);</t>
-  </si>
-  <si>
-    <t>);</t>
-  </si>
-  <si>
-    <t>SlateWindowRendered.Broadcast(*Window, &amp;ViewInfo-&gt;ViewportRHI);</t>
-  </si>
-  <si>
-    <t>if (bLocalTakingAScreenShot)</t>
-  </si>
-  <si>
-    <t>// immediately flush the RHI command list</t>
-  </si>
-  <si>
-    <t>FlushRenderingCommands();</t>
-  </si>
-  <si>
-    <t>FontCache-&gt;ConditionalFlushCache();</t>
-  </si>
-  <si>
-    <t>第三步，清空</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateApplication::DrawPrepass( TSharedPtr&lt;SWindow&gt; DrawOnlyThisWindow )</t>
-  </si>
-  <si>
-    <t>for (const TSharedRef&lt;SWindow&gt;&amp; CurrentWindow : SlateWindows)</t>
-  </si>
-  <si>
-    <t>PrepassWindowAndChildren(CurrentWindow);</t>
-  </si>
-  <si>
-    <t>static void PrepassWindowAndChildren( TSharedRef&lt;SWindow&gt; WindowToPrepass )</t>
-  </si>
-  <si>
-    <t>if (IsRunningDedicatedServer())</t>
-  </si>
-  <si>
-    <t>return;</t>
-  </si>
-  <si>
-    <t>DS模式不处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>const bool bIsWindowVisible = WindowToPrepass-&gt;IsVisible() &amp;&amp; !WindowToPrepass-&gt;IsWindowMinimized();</t>
-  </si>
-  <si>
-    <t>if (bIsWindowVisible || DoAnyWindowDescendantsNeedPrepass(WindowToPrepass))</t>
-  </si>
-  <si>
-    <t>FScopedSwitchWorldHack SwitchWorld(WindowToPrepass);</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;ProcessWindowInvalidation();</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;SlatePrepass(FSlateApplication::Get().GetApplicationScale() * WindowToPrepass-&gt;GetNativeWindow()-&gt;GetDPIScaleFactor());</t>
-  </si>
-  <si>
-    <t>if ( bIsWindowVisible &amp;&amp; WindowToPrepass-&gt;IsAutosized() )</t>
-  </si>
-  <si>
-    <t>WindowToPrepass-&gt;Resize(WindowToPrepass-&gt;GetDesiredSizeDesktopPixels());</t>
-  </si>
-  <si>
-    <t>// Note: Iterate over copy since num children can change during resize above.</t>
-  </si>
-  <si>
-    <t>FMemMark Mark(FMemStack::Get());</t>
-  </si>
-  <si>
-    <t>TArray&lt;TSharedRef&lt;SWindow&gt;, TMemStackAllocator&lt;&gt;&gt; ChildWindows(WindowToPrepass-&gt;GetChildWindows());</t>
-  </si>
-  <si>
-    <t>for (const TSharedRef&lt;SWindow&gt;&amp; ChildWindow : ChildWindows)</t>
-  </si>
-  <si>
-    <t>PrepassWindowAndChildren(ChildWindow);</t>
-  </si>
-  <si>
-    <t>预计算；根据缩放系数等计算大小</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateApplication::DrawWindowAndChildren( const TSharedRef&lt;SWindow&gt;&amp; WindowToDraw, FDrawWindowArgs&amp; DrawWindowArgs )</t>
-  </si>
-  <si>
-    <t>MaxLayerId = WindowToDraw-&gt;PaintWindow(</t>
-  </si>
-  <si>
-    <t>GetCurrentTime(),</t>
-  </si>
-  <si>
-    <t>GetDeltaTime(),</t>
-  </si>
-  <si>
-    <t>WindowElementList,</t>
-  </si>
-  <si>
-    <t>FWidgetStyle(),</t>
-  </si>
-  <si>
-    <t>WindowToDraw-&gt;IsEnabled());</t>
-  </si>
-  <si>
-    <t>执行PaintWindow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>if (bDrawChildWindows)</t>
-  </si>
-  <si>
-    <t>// Draw the child windows</t>
-  </si>
-  <si>
-    <t>const TArray&lt; TSharedRef&lt;SWindow&gt; &gt; WindowChildren = WindowToDraw-&gt;GetChildWindows();</t>
-  </si>
-  <si>
-    <t>for (int32 ChildIndex=0; ChildIndex &lt; WindowChildren.Num(); ++ChildIndex)</t>
-  </si>
-  <si>
-    <t>DrawWindowAndChildren( WindowChildren[ChildIndex], DrawWindowArgs );</t>
-  </si>
-  <si>
-    <t>子节点执行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 SWindow::PaintWindow( double CurrentTime, float DeltaTime, FSlateWindowElementList&amp; OutDrawElements, const FWidgetStyle&amp; InWidgetStyle, bool bParentEnabled )</t>
-  </si>
-  <si>
-    <t>FSlateInvalidationResult Result = PaintInvalidationRoot(Context);</t>
-  </si>
-  <si>
-    <t>执行该处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FSlateInvalidationResult FSlateInvalidationRoot::PaintInvalidationRoot(const FSlateInvalidationContext&amp; Context)</t>
-  </si>
-  <si>
-    <t>里面的FastPath和SLowPath是啥意思？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Result.bRepaintedWidgets = PaintFastPath(Context);</t>
-  </si>
-  <si>
-    <t>CachedMaxLayerId = PaintSlowPath(Context);</t>
-  </si>
-  <si>
-    <t>啥意思？？？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关于FSlateApplication的TICK处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分为三类：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESlateTickType::Widgets</t>
-  </si>
-  <si>
-    <t>ESlateTickType::Time</t>
-  </si>
-  <si>
-    <t>ESlateTickType::PlatformAndInput</t>
-  </si>
-  <si>
-    <t>平台缓存的输入事件处理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新TickTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>渲染UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每次TICK更新一次</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FMoviePlayerWidgetRenderer::DrawWindow(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>FSlateApplication::Get().Tick(ESlateTickType::Time);</t>
-  </si>
-  <si>
-    <t>void FPreLoadSlateWidgetRenderer::DrawWindow(float DeltaTime)</t>
-  </si>
-  <si>
-    <t>只在特殊时期进行调用；一般主线程调用的TimeAndWidgets</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ESlateTickType::TimeAndWidgets:</t>
-  </si>
-  <si>
-    <t>不会单独调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新事件，渲染UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主线程调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>异步线程调用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 FEngineLoop::PreInitPreStartupScreen(const TCHAR* CmdLine)</t>
-  </si>
-  <si>
-    <t>TSharedPtr&lt;FSlateRenderer&gt; SlateRenderer = GUsingNullRHI ?</t>
-  </si>
-  <si>
-    <t>FModuleManager::Get().LoadModuleChecked&lt;ISlateNullRendererModule&gt;("SlateNullRenderer").CreateSlateNullRenderer() :</t>
-  </si>
-  <si>
-    <t>FModuleManager::Get().GetModuleChecked&lt;ISlateRHIRendererModule&gt;("SlateRHIRenderer").CreateSlateRHIRenderer();</t>
-  </si>
-  <si>
-    <t>TSharedRef&lt;FSlateRenderer&gt; SlateRendererSharedRef = SlateRenderer.ToSharedRef();</t>
-  </si>
-  <si>
-    <t>SCOPED_BOOT_TIMING("CurrentSlateApp.InitializeRenderer");</t>
-  </si>
-  <si>
-    <t>// If Slate is being used, initialize the renderer after RHIInit</t>
-  </si>
-  <si>
-    <t>FSlateApplication&amp; CurrentSlateApp = FSlateApplication::Get();</t>
-  </si>
-  <si>
-    <t>CurrentSlateApp.InitializeRenderer(SlateRendererSharedRef);</t>
-  </si>
-  <si>
-    <t>对应的Render是在初始化时设置</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaintSlowPath</t>
-  </si>
-  <si>
-    <t>就是挨个调用渲染接口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SWindow::PaintSlowPath</t>
-  </si>
-  <si>
-    <t>int32 SWidget::Paint(const FPaintArgs&amp; Args, const FGeometry&amp; AllottedGeometry, const FSlateRect&amp; MyCullingRect, FSlateWindowElementList&amp; OutDrawElements, int32 LayerId, const FWidgetStyle&amp; InWidgetStyle,</t>
-  </si>
-  <si>
-    <t>MutableThis-&gt;Tick(DesktopSpaceGeometry, Args.GetCurrentTime(), Args.GetDeltaTime());</t>
-  </si>
-  <si>
-    <t>执行TICK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int32 NewLayerId = OnPaint(UpdatedArgs, AllottedGeometry, CullingBounds, OutDrawElements, LayerId, ContentWidgetStyle, bParentEnabled);</t>
-  </si>
-  <si>
-    <t>挨个调用OnPaint，将自己渲染信息插入到Context.WindowElementList</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PaintFastPath</t>
-  </si>
-  <si>
-    <t>不会挨个调用OnPaint，使用缓存的数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>也会调用TICK，不过是通过Proxy调用，不会调用OnPaint</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>void FSlateRHIRenderer::DrawWindows_Private(FSlateDrawBuffer&amp; WindowDrawBuffer)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -923,12 +924,12 @@
   <sheetData>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.2">
@@ -936,17 +937,17 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="I6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="I7" t="s">
         <v>0</v>
@@ -962,37 +963,37 @@
         <v>2</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" s="3"/>
       <c r="I10" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="2:17" x14ac:dyDescent="0.2">
       <c r="I13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:17" x14ac:dyDescent="0.2">
       <c r="J14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="2:17" x14ac:dyDescent="0.2">
@@ -1000,16 +1001,16 @@
         <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" s="3"/>
       <c r="I16" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="2:10" x14ac:dyDescent="0.2">
@@ -1017,15 +1018,15 @@
         <v>4</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I22" t="s">
         <v>0</v>
@@ -1164,15 +1165,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBE82-CA20-449F-A590-0A9A5C2E5AF7}">
   <dimension ref="A2:T45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
@@ -1217,7 +1218,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>21</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
@@ -1225,10 +1226,10 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
@@ -1236,10 +1237,10 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:17" x14ac:dyDescent="0.2">
@@ -1259,13 +1260,13 @@
         <v>2</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="Q21" s="1"/>
     </row>
@@ -1279,24 +1280,24 @@
     <row r="23" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B23" s="1"/>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="Q23" s="1"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B24" s="1"/>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="Q24" s="1"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B25" s="1"/>
       <c r="D25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.2">
@@ -1309,7 +1310,7 @@
     <row r="27" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B27" s="1"/>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q27" s="1"/>
     </row>
@@ -1340,41 +1341,41 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="34" spans="17:20" x14ac:dyDescent="0.2">
       <c r="Q34" s="1"/>
       <c r="R34" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="35" spans="17:20" x14ac:dyDescent="0.2">
       <c r="S35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T36" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="38" spans="17:20" x14ac:dyDescent="0.2">
       <c r="S38" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="17:20" x14ac:dyDescent="0.2">
@@ -1384,22 +1385,22 @@
     </row>
     <row r="41" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="42" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T42" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="43" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T43" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" spans="17:20" x14ac:dyDescent="0.2">
       <c r="T44" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="17:20" x14ac:dyDescent="0.2">
@@ -1425,12 +1426,12 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
@@ -1440,7 +1441,7 @@
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
@@ -1450,7 +1451,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
@@ -1460,17 +1461,17 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.2">
@@ -1480,7 +1481,7 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.2">
@@ -1490,12 +1491,12 @@
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.2">
@@ -1505,7 +1506,7 @@
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.2">
@@ -1515,7 +1516,7 @@
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -1529,7 +1530,7 @@
     </row>
     <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E26" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1548,7 +1549,7 @@
     </row>
     <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="3:14" x14ac:dyDescent="0.2">
@@ -1558,7 +1559,7 @@
     </row>
     <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="E31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.2">
@@ -1568,22 +1569,22 @@
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.2">
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.2">
@@ -1593,7 +1594,7 @@
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.2">
       <c r="E39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.2">
@@ -1616,7 +1617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9DB6430-4985-4A97-BC72-A3D00F4C5483}">
   <dimension ref="B2:S51"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="Q57" sqref="Q57"/>
     </sheetView>
   </sheetViews>
@@ -1624,7 +1625,7 @@
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
@@ -1634,17 +1635,17 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
@@ -1654,7 +1655,7 @@
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -1669,52 +1670,52 @@
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C14" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="H16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H17" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.2">
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C22" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.2">
@@ -1724,17 +1725,17 @@
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.2">
       <c r="D27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.2">
@@ -1744,7 +1745,7 @@
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.2">
       <c r="E29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="30" spans="3:8" x14ac:dyDescent="0.2">
@@ -1759,71 +1760,71 @@
     </row>
     <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
       <c r="Q40" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="R40" s="1"/>
     </row>
     <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="Q41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="R42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="R43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R44" s="2">
         <v>1</v>
       </c>
       <c r="S44" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S45" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="2:19" x14ac:dyDescent="0.2">
@@ -1831,12 +1832,12 @@
         <v>2</v>
       </c>
       <c r="S46" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="S47" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="16:17" x14ac:dyDescent="0.2">
@@ -1844,18 +1845,18 @@
         <v>2</v>
       </c>
       <c r="Q49" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="16:17" x14ac:dyDescent="0.2">
       <c r="P50" s="1"/>
       <c r="Q50" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="16:17" x14ac:dyDescent="0.2">
       <c r="Q51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -1868,7 +1869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67270D2-92AF-418B-A6DF-F3D631E762EB}">
   <dimension ref="B3:L75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
@@ -1876,7 +1877,7 @@
   <sheetData>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
@@ -1886,7 +1887,7 @@
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
@@ -1896,20 +1897,20 @@
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C11" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.2">
@@ -1919,7 +1920,7 @@
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.2">
@@ -1929,67 +1930,67 @@
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C17" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D23" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
       <c r="D32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.2">
@@ -1999,97 +2000,97 @@
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I42" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D43" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.2">
       <c r="I48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="49" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I54" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="9:12" x14ac:dyDescent="0.2">
@@ -2099,12 +2100,12 @@
     </row>
     <row r="56" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="57" spans="9:12" x14ac:dyDescent="0.2">
       <c r="K57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="58" spans="9:12" x14ac:dyDescent="0.2">
@@ -2114,7 +2115,7 @@
     </row>
     <row r="59" spans="9:12" x14ac:dyDescent="0.2">
       <c r="L59" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="9:12" x14ac:dyDescent="0.2">
@@ -2124,7 +2125,7 @@
     </row>
     <row r="61" spans="9:12" x14ac:dyDescent="0.2">
       <c r="J61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="9:12" x14ac:dyDescent="0.2">
@@ -2134,12 +2135,12 @@
     </row>
     <row r="64" spans="9:12" x14ac:dyDescent="0.2">
       <c r="I64" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66" spans="3:10" x14ac:dyDescent="0.2">
       <c r="I66" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="67" spans="3:10" x14ac:dyDescent="0.2">
@@ -2149,12 +2150,12 @@
     </row>
     <row r="68" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="3:10" x14ac:dyDescent="0.2">
       <c r="J69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="3:10" x14ac:dyDescent="0.2">
@@ -2169,12 +2170,12 @@
     </row>
     <row r="74" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C74" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="75" spans="3:10" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
